--- a/target/test-classes/Tests/ExecutionManager.xlsx
+++ b/target/test-classes/Tests/ExecutionManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddevate\Workspace1\FOCUS-master\src\test\resources\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddevate\Documents\State Of Delaware\FOCUS\src\test\resources\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -543,7 +543,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>

--- a/target/test-classes/Tests/ExecutionManager.xlsx
+++ b/target/test-classes/Tests/ExecutionManager.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -543,7 +543,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
